--- a/biology/Histoire de la zoologie et de la botanique/Xander_van_der_Burgt/Xander_van_der_Burgt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Xander_van_der_Burgt/Xander_van_der_Burgt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xander van der Burgt (ou Xander M. van der Burgt) est un botaniste néerlandais contemporain, spécialiste de la flore tropicale d'Afrique centrale, particulièrement des Spermatophytes. En dix ans, il a découvert – en majorité dans la forêt de Korup au Cameroun – 25 nouvelles espèces de grands arbres[1], telles que Didelotia korupensis, Gluema korupensis ou Tessmannia korupensis. Anthonotha xanderi Breteler lui doit son épithète spécifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xander van der Burgt (ou Xander M. van der Burgt) est un botaniste néerlandais contemporain, spécialiste de la flore tropicale d'Afrique centrale, particulièrement des Spermatophytes. En dix ans, il a découvert – en majorité dans la forêt de Korup au Cameroun – 25 nouvelles espèces de grands arbres, telles que Didelotia korupensis, Gluema korupensis ou Tessmannia korupensis. Anthonotha xanderi Breteler lui doit son épithète spécifique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titulaire d'un MSc en sylviculture obtenu à l'université de Wageningue (Pays-Bas) en 1994, il travaille pour l'herbier de cette même université (1997-1999 et 2001), à l'Institute of Plant Sciences de l'université de Berne (Suisse) en 1999-2000 et 2002-2005, puis aux jardins botaniques royaux de Kew (Royaume-Uni) à partir de 2006[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Titulaire d'un MSc en sylviculture obtenu à l'université de Wageningue (Pays-Bas) en 1994, il travaille pour l'herbier de cette même université (1997-1999 et 2001), à l'Institute of Plant Sciences de l'université de Berne (Suisse) en 1999-2000 et 2002-2005, puis aux jardins botaniques royaux de Kew (Royaume-Uni) à partir de 2006.
 </t>
         </is>
       </c>
